--- a/docs/data/quiz/e4v2/hand_strength.xlsx
+++ b/docs/data/quiz/e4v2/hand_strength.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saharq\OneDrive\Desktop\Desktop\BYU-I\Courses\Math 221B\Exams\Exam 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\quiz\e4v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{579D764D-D7D8-4331-89DF-D4579587F983}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A1395C43-B539-4BF3-95F3-EF517A0B7FF7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F4F97D-14FB-4BE3-86BE-D60BACC300E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCB8A84D-5986-442D-9CBC-4E9FB4BFD74C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CCB8A84D-5986-442D-9CBC-4E9FB4BFD74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">Person </t>
+    <t>person</t>
   </si>
   <si>
-    <t>Left hand</t>
+    <t>right_hand</t>
   </si>
   <si>
-    <t>Right hand</t>
+    <t>left_hand</t>
   </si>
 </sst>
 </file>
@@ -474,28 +474,28 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.1796875" style="3"/>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -506,7 +506,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -517,7 +517,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -528,7 +528,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -539,7 +539,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -550,7 +550,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -561,7 +561,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -572,7 +572,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -583,7 +583,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -594,7 +594,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
